--- a/machine_learning_and_stats/misc/func_dist.xlsx
+++ b/machine_learning_and_stats/misc/func_dist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ueda/GIT/slides_marp/machine_learning_and_stats/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9308C434-6DC3-4280-9924-A0C7B8515AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966A8750-2EB1-654F-A0A9-37906DEC709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35760" windowHeight="24840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poisson" sheetId="2" r:id="rId1"/>
@@ -52,12 +52,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -216,10 +223,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-4.0613768040241638E-2</c:v>
+                  <c:v>0.42751022627385726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.80931421573717088</c:v>
+                  <c:v>-0.37378118422258311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,10 +275,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.4053261398888868</c:v>
+                  <c:v>0.87036229622962402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1696413411193634</c:v>
+                  <c:v>0.40723107535537295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,10 +327,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.27178681129817051</c:v>
+                  <c:v>0.56119242958204207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77601686526930358</c:v>
+                  <c:v>2.2164037055930974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -372,10 +379,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.2231772927183577</c:v>
+                  <c:v>-1.0394597246022279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1733606454103436</c:v>
+                  <c:v>-0.71893000730492229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,10 +431,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-1.2805957481276442</c:v>
+                  <c:v>-2.4017879993693083</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38219467312014554</c:v>
+                  <c:v>-2.7468321986902713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,10 +483,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.19416212260672694</c:v>
+                  <c:v>-1.0821750823199867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1642163475575025</c:v>
+                  <c:v>-1.0674965732102741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,10 +537,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.29187461233509104</c:v>
+                  <c:v>-0.93161766993499828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.42506158809308836</c:v>
+                  <c:v>-2.7890614711224471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,10 +591,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.15784242807955096</c:v>
+                  <c:v>0.1146712709950215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2467741981169391</c:v>
+                  <c:v>0.56459052607627669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,10 +645,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.66963496144491597</c:v>
+                  <c:v>-1.0634172900235574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.3052482473555562</c:v>
+                  <c:v>0.15033733165374752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,10 +699,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.4568080139949533</c:v>
+                  <c:v>0.56212452254545475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3305872058139583</c:v>
+                  <c:v>0.81840597152646311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -746,10 +753,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.3266839720385644</c:v>
+                  <c:v>0.31757791364510446</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5462510088569648</c:v>
+                  <c:v>-0.41280754695417698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,10 +807,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-6.0729139969094348E-2</c:v>
+                  <c:v>1.7628604618665964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56599123263702822</c:v>
+                  <c:v>1.293562650670431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,10 +862,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.64272544216014982</c:v>
+                  <c:v>-9.0209377222259413E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.0738737789637742</c:v>
+                  <c:v>-1.746281311946392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,10 +917,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.69603221166673546</c:v>
+                  <c:v>-0.98576685653236495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29957548820447411</c:v>
+                  <c:v>-0.4379741062163145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,10 +972,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-1.1804154533458471</c:v>
+                  <c:v>-0.33853907895669799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.6511298017812308</c:v>
+                  <c:v>-2.056252656727187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,10 +1027,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.9275819882069953E-2</c:v>
+                  <c:v>-0.10375972884946982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63739719886385693</c:v>
+                  <c:v>0.95103967750620555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,10 +1082,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-1.156259399192205</c:v>
+                  <c:v>2.2850096033620346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3861648000890341</c:v>
+                  <c:v>3.1431058232875495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,10 +1137,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.52476347122333511</c:v>
+                  <c:v>-1.6671596472437935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0853533494754615E-2</c:v>
+                  <c:v>-2.0255357897133912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,10 +1191,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.3203297349877019</c:v>
+                  <c:v>0.30613775236589458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26788919845309955</c:v>
+                  <c:v>0.97033708859987655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,10 +1245,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.35956130137613052</c:v>
+                  <c:v>-1.1928902062673856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.22862268630728444</c:v>
+                  <c:v>-2.8451942464019986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5307,16 +5314,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>258233</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>93133</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>135467</xdr:rowOff>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5993,176 +6000,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-0.76870044769692925</v>
+        <f t="shared" ref="B1:U1" ca="1" si="0">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
+        <v>-0.80129141049644037</v>
       </c>
       <c r="C1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-0.23568479876952342</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.46313122087425107</v>
       </c>
       <c r="D1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>0.50423005397113307</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6552112760110553</v>
       </c>
       <c r="E1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-4.9816647308014161E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32052971729730562</v>
       </c>
       <c r="F1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>1.6627904212477898</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.34504419932096297</v>
       </c>
       <c r="G1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-1.3583784701642294</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4678509109712579E-2</v>
       </c>
       <c r="H1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-0.7169362004281794</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.8574438011874488</v>
       </c>
       <c r="I1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>1.4046166261964901</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44991925508125519</v>
       </c>
       <c r="J1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-1.6356132859106403</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.213754621677305</v>
       </c>
       <c r="K1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-0.87377919181900499</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25628144898100835</v>
       </c>
       <c r="L1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>0.2195670368184004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.73038546059928144</v>
       </c>
       <c r="M1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>0.62672037260612257</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.46929781119616543</v>
       </c>
       <c r="N1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-1.4311483368036244</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.6560719347241326</v>
       </c>
       <c r="O1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-0.39645672346226135</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54779275031605046</v>
       </c>
       <c r="P1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-0.47071434843538373</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.7177135777704891</v>
       </c>
       <c r="Q1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>0.60812137898178698</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0547994063556754</v>
       </c>
       <c r="R1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-0.22990540089682909</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85809621992551488</v>
       </c>
       <c r="S1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-0.49390993772858049</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.3583761424695977</v>
       </c>
       <c r="T1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>0.58821893344080145</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66419933623398197</v>
       </c>
       <c r="U1">
-        <f ca="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>0.13093861506884608</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.652304040134613</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="B2">
-        <f t="shared" ref="B2:U2" ca="1" si="0">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
-        <v>-4.0613768040241638E-2</v>
+        <f t="shared" ref="B2:U2" ca="1" si="1">RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()+RAND()-6</f>
+        <v>0.42751022627385726</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4053261398888868</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87036229622962402</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27178681129817051</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56119242958204207</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2231772927183577</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0394597246022279</v>
       </c>
       <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.2805957481276442</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.4017879993693083</v>
       </c>
       <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19416212260672694</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0821750823199867</v>
       </c>
       <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29187461233509104</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.93161766993499828</v>
       </c>
       <c r="I2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.15784242807955096</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1146712709950215</v>
       </c>
       <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.66963496144491597</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0634172900235574</v>
       </c>
       <c r="K2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.4568080139949533</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56212452254545475</v>
       </c>
       <c r="L2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3266839720385644</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31757791364510446</v>
       </c>
       <c r="M2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6.0729139969094348E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7628604618665964</v>
       </c>
       <c r="N2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.64272544216014982</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.0209377222259413E-2</v>
       </c>
       <c r="O2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.69603221166673546</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.98576685653236495</v>
       </c>
       <c r="P2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.1804154533458471</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.33853907895669799</v>
       </c>
       <c r="Q2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9275819882069953E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.10375972884946982</v>
       </c>
       <c r="R2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.156259399192205</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2850096033620346</v>
       </c>
       <c r="S2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52476347122333511</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.6671596472437935</v>
       </c>
       <c r="T2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.3203297349877019</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30613775236589458</v>
       </c>
       <c r="U2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.35956130137613052</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.1928902062673856</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -6171,83 +6178,83 @@
       </c>
       <c r="B5">
         <f ca="1">B$1*$A5 +B$2</f>
-        <v>-4.0613768040241638E-2</v>
+        <v>0.42751022627385726</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:R6" ca="1" si="1">C$1*$A5 +C$2</f>
-        <v>1.4053261398888868</v>
+        <f t="shared" ref="C5:R6" ca="1" si="2">C$1*$A5 +C$2</f>
+        <v>0.87036229622962402</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27178681129817051</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56119242958204207</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2231772927183577</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0394597246022279</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.2805957481276442</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.4017879993693083</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19416212260672694</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0821750823199867</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.29187461233509104</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.93161766993499828</v>
       </c>
       <c r="I5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.15784242807955096</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1146712709950215</v>
       </c>
       <c r="J5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.66963496144491597</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0634172900235574</v>
       </c>
       <c r="K5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.4568080139949533</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56212452254545475</v>
       </c>
       <c r="L5">
         <f ca="1">L$1*$A5 +L$2</f>
-        <v>1.3266839720385644</v>
+        <v>0.31757791364510446</v>
       </c>
       <c r="M5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.0729139969094348E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7628604618665964</v>
       </c>
       <c r="N5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.64272544216014982</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.0209377222259413E-2</v>
       </c>
       <c r="O5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.69603221166673546</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.98576685653236495</v>
       </c>
       <c r="P5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.1804154533458471</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.33853907895669799</v>
       </c>
       <c r="Q5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9275819882069953E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.10375972884946982</v>
       </c>
       <c r="R5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.156259399192205</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2850096033620346</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="M5:U6" ca="1" si="2">S$1*$A5 +S$2</f>
-        <v>0.52476347122333511</v>
+        <f t="shared" ref="M5:U6" ca="1" si="3">S$1*$A5 +S$2</f>
+        <v>-1.6671596472437935</v>
       </c>
       <c r="T5">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.3203297349877019</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30613775236589458</v>
       </c>
       <c r="U5">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.35956130137613052</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.1928902062673856</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -6256,84 +6263,714 @@
       </c>
       <c r="B6">
         <f ca="1">B$1*$A6 +B$2</f>
-        <v>-0.80931421573717088</v>
+        <v>-0.37378118422258311</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1696413411193634</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40723107535537295</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.77601686526930358</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2164037055930974</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1733606454103436</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.71893000730492229</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38219467312014554</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.7468321986902713</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.1642163475575025</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0674965732102741</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.42506158809308836</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.7890614711224471</v>
       </c>
       <c r="I6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2467741981169391</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56459052607627669</v>
       </c>
       <c r="J6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.3052482473555562</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15033733165374752</v>
       </c>
       <c r="K6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.3305872058139583</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.81840597152646311</v>
       </c>
       <c r="L6">
         <f ca="1">L$1*$A6 +L$2</f>
-        <v>1.5462510088569648</v>
+        <v>-0.41280754695417698</v>
       </c>
       <c r="M6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.56599123263702822</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.293562650670431</v>
       </c>
       <c r="N6">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2.0738737789637742</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.746281311946392</v>
       </c>
       <c r="O6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.29957548820447411</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.4379741062163145</v>
       </c>
       <c r="P6">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1.6511298017812308</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.056252656727187</v>
       </c>
       <c r="Q6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.63739719886385693</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.95103967750620555</v>
       </c>
       <c r="R6">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1.3861648000890341</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1431058232875495</v>
       </c>
       <c r="S6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.0853533494754615E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.0255357897133912</v>
       </c>
       <c r="T6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.26788919845309955</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.97033708859987655</v>
       </c>
       <c r="U6">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.22862268630728444</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.8451942464019986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="7:19">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="7:19">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="7:19">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="7:19">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="7:19">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="7:19">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="7:19">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="7:19">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="7:19">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="7:19">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="7:19">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="7:19">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="7:19">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="7:19">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="7:19">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="7:19">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="7:19">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="7:19">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="7:19">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="7:19">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="7:19">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="7:19">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="7:19">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="7:19">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="7:19">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="7:19">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="7:19">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="7:19">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="7:19">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="7:19">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="7:19">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="7:19">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="7:19">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6351,7 +6988,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1">
